--- a/Mobile_Testing.xlsx
+++ b/Mobile_Testing.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Mobile App" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -261,7 +261,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,6 +380,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -391,18 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,7 +469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -504,7 +504,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -681,7 +681,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -692,7 +692,7 @@
   <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,10 +703,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -718,10 +718,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -787,10 +787,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -928,10 +928,10 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -1005,10 +1005,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="17"/>
+      <c r="B37" s="14"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
@@ -1056,10 +1056,10 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="18"/>
+      <c r="B43" s="15"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
@@ -1107,10 +1107,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="17"/>
+      <c r="B49" s="14"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
@@ -1158,10 +1158,10 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="17"/>
+      <c r="B55" s="14"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
@@ -1191,10 +1191,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="18"/>
+      <c r="B59" s="15"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
@@ -1224,10 +1224,10 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="17"/>
+      <c r="B63" s="14"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
@@ -1266,10 +1266,10 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="17"/>
+      <c r="B68" s="14"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
@@ -1308,10 +1308,10 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="19"/>
+      <c r="B73" s="12"/>
       <c r="C73"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,18 +1429,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Mobile_Testing.xlsx
+++ b/Mobile_Testing.xlsx
@@ -380,18 +380,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -403,6 +391,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,7 +681,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,10 +703,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -718,10 +718,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -787,10 +787,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -928,10 +928,10 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="13"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -1005,10 +1005,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="14"/>
+      <c r="B37" s="17"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
@@ -1056,10 +1056,10 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="15"/>
+      <c r="B43" s="18"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
@@ -1107,10 +1107,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="14"/>
+      <c r="B49" s="17"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
@@ -1158,10 +1158,10 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="14"/>
+      <c r="B55" s="17"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
@@ -1191,10 +1191,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="15"/>
+      <c r="B59" s="18"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
@@ -1224,10 +1224,10 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="14"/>
+      <c r="B63" s="17"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
@@ -1266,10 +1266,10 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="14"/>
+      <c r="B68" s="17"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
@@ -1308,10 +1308,10 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="12"/>
+      <c r="B73" s="19"/>
       <c r="C73"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,18 +1429,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A68:B68"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A68:B68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Mobile_Testing.xlsx
+++ b/Mobile_Testing.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Mobile App" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,9 +96,6 @@
     <t>Светлая/темная тема</t>
   </si>
   <si>
-    <t>Интернет</t>
-  </si>
-  <si>
     <t>Wi-Fi</t>
   </si>
   <si>
@@ -256,12 +253,15 @@
   </si>
   <si>
     <t>Тестирование производительности</t>
+  </si>
+  <si>
+    <t>Интернет https://developer.android.com/training/basics/network-ops/reading-network-state</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,6 +380,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -391,18 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,7 +681,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,10 +703,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -718,10 +718,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -787,10 +787,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="17"/>
+      <c r="A12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -798,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -816,7 +816,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -825,7 +825,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -843,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -852,7 +852,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,7 +870,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -888,7 +888,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -906,7 +906,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -915,7 +915,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -924,14 +924,14 @@
         <v>22</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -974,7 +974,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,10 +1005,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="17"/>
+      <c r="B37" s="14"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
@@ -1056,10 +1056,10 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="18"/>
+      <c r="A43" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="15"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
@@ -1067,7 +1067,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1076,7 +1076,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1103,14 +1103,14 @@
         <v>40</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="17"/>
+      <c r="B49" s="14"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
@@ -1118,7 +1118,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1136,7 +1136,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1145,7 +1145,7 @@
         <v>44</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1154,14 +1154,14 @@
         <v>45</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="17"/>
+      <c r="B55" s="14"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
@@ -1169,7 +1169,7 @@
         <v>46</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
         <v>47</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1187,14 +1187,14 @@
         <v>48</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" s="18"/>
+      <c r="B59" s="15"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
@@ -1202,7 +1202,7 @@
         <v>49</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1211,7 +1211,7 @@
         <v>50</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1220,14 +1220,14 @@
         <v>51</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63" s="17"/>
+      <c r="A63" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="14"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
@@ -1235,7 +1235,7 @@
         <v>52</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1244,7 +1244,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1253,7 +1253,7 @@
         <v>54</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1262,14 +1262,14 @@
         <v>55</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" s="17"/>
+      <c r="A68" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="14"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
@@ -1277,7 +1277,7 @@
         <v>56</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1286,7 +1286,7 @@
         <v>57</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>58</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1304,14 +1304,14 @@
         <v>59</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B73" s="19"/>
+      <c r="A73" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="12"/>
       <c r="C73"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1319,7 +1319,7 @@
         <v>60</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74"/>
     </row>
@@ -1329,7 +1329,7 @@
         <v>61</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75"/>
     </row>
@@ -1339,7 +1339,7 @@
         <v>62</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76"/>
     </row>
@@ -1349,7 +1349,7 @@
         <v>63</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77"/>
     </row>
@@ -1359,7 +1359,7 @@
         <v>64</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78"/>
     </row>
@@ -1369,7 +1369,7 @@
         <v>65</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C79"/>
     </row>
@@ -1429,18 +1429,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
